--- a/Code/Results/Cases/Case_0_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9493801536638243</v>
+        <v>1.010536130669066</v>
       </c>
       <c r="D2">
-        <v>0.9611298744614201</v>
+        <v>1.013033400758866</v>
       </c>
       <c r="E2">
-        <v>0.9623605412089161</v>
+        <v>1.01278048318499</v>
       </c>
       <c r="F2">
-        <v>0.9233340425675903</v>
+        <v>1.008778288730086</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.973188009659683</v>
+        <v>1.015789810205607</v>
       </c>
       <c r="K2">
-        <v>0.9731586743334297</v>
+        <v>1.015895768886358</v>
       </c>
       <c r="L2">
-        <v>0.9743704115817506</v>
+        <v>1.015643611777393</v>
       </c>
       <c r="M2">
-        <v>0.9359759330233851</v>
+        <v>1.011653506336786</v>
       </c>
       <c r="N2">
-        <v>0.9745700482596247</v>
+        <v>1.017232348248819</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9566473130668587</v>
+        <v>1.011961825587721</v>
       </c>
       <c r="D3">
-        <v>0.9672956944484128</v>
+        <v>1.014294552009237</v>
       </c>
       <c r="E3">
-        <v>0.9683409372712252</v>
+        <v>1.014005743137137</v>
       </c>
       <c r="F3">
-        <v>0.9337317822483114</v>
+        <v>1.010859548778239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9783938807282543</v>
+        <v>1.016845823810705</v>
       </c>
       <c r="K3">
-        <v>0.9783648719045126</v>
+        <v>1.016960289391879</v>
       </c>
       <c r="L3">
-        <v>0.9793955956532511</v>
+        <v>1.016672285099133</v>
       </c>
       <c r="M3">
-        <v>0.9452892004549175</v>
+        <v>1.0135348878805</v>
       </c>
       <c r="N3">
-        <v>0.979783312262235</v>
+        <v>1.018289861514363</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9611994290940834</v>
+        <v>1.012883059000036</v>
       </c>
       <c r="D4">
-        <v>0.971164453982738</v>
+        <v>1.015109664922087</v>
       </c>
       <c r="E4">
-        <v>0.9720944427065616</v>
+        <v>1.014797684216437</v>
       </c>
       <c r="F4">
-        <v>0.9402213390415285</v>
+        <v>1.012204372999632</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>0.9816505722691534</v>
+        <v>1.017527519092686</v>
       </c>
       <c r="K4">
-        <v>0.9816238250499912</v>
+        <v>1.017647633016014</v>
       </c>
       <c r="L4">
-        <v>0.9825417546527208</v>
+        <v>1.017336477009674</v>
       </c>
       <c r="M4">
-        <v>0.9510991232967727</v>
+        <v>1.014750042297968</v>
       </c>
       <c r="N4">
-        <v>0.98304462867867</v>
+        <v>1.018972524881836</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.963079449676387</v>
+        <v>1.013270046004912</v>
       </c>
       <c r="D5">
-        <v>0.9727637184999978</v>
+        <v>1.015452120874029</v>
       </c>
       <c r="E5">
-        <v>0.9736463031690846</v>
+        <v>1.01513041083367</v>
       </c>
       <c r="F5">
-        <v>0.9428966673006688</v>
+        <v>1.012769303319353</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>0.9829945363965091</v>
+        <v>1.017813723253029</v>
       </c>
       <c r="K5">
-        <v>0.9829691952027781</v>
+        <v>1.017936245941868</v>
       </c>
       <c r="L5">
-        <v>0.9838406700723763</v>
+        <v>1.017615367096649</v>
       </c>
       <c r="M5">
-        <v>0.9534935274213298</v>
+        <v>1.015260377364591</v>
       </c>
       <c r="N5">
-        <v>0.9843905013892414</v>
+        <v>1.019259135484914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9633931998601495</v>
+        <v>1.013335005507032</v>
       </c>
       <c r="D6">
-        <v>0.9730306980939601</v>
+        <v>1.0155096081717</v>
       </c>
       <c r="E6">
-        <v>0.9739053826626601</v>
+        <v>1.0151862652314</v>
       </c>
       <c r="F6">
-        <v>0.9433428795096597</v>
+        <v>1.012864132710353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>0.9832187635187106</v>
+        <v>1.017861756060277</v>
       </c>
       <c r="K6">
-        <v>0.9831936841449365</v>
+        <v>1.017984685190564</v>
       </c>
       <c r="L6">
-        <v>0.9840574135891079</v>
+        <v>1.017662174422573</v>
       </c>
       <c r="M6">
-        <v>0.9538928390556072</v>
+        <v>1.015346035106193</v>
       </c>
       <c r="N6">
-        <v>0.9846150469396756</v>
+        <v>1.019307236504258</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9612246795548135</v>
+        <v>1.012888231105818</v>
       </c>
       <c r="D7">
-        <v>0.9711859279233653</v>
+        <v>1.015114241681825</v>
       </c>
       <c r="E7">
-        <v>0.9721152792141299</v>
+        <v>1.014802130925262</v>
       </c>
       <c r="F7">
-        <v>0.940257289477296</v>
+        <v>1.01221192330768</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>0.9816686271677133</v>
+        <v>1.01753134485412</v>
       </c>
       <c r="K7">
-        <v>0.9816418969908893</v>
+        <v>1.017651490829374</v>
       </c>
       <c r="L7">
-        <v>0.9825592021671354</v>
+        <v>1.017340204866563</v>
       </c>
       <c r="M7">
-        <v>0.9511313017834613</v>
+        <v>1.014756863426336</v>
       </c>
       <c r="N7">
-        <v>0.983062709217257</v>
+        <v>1.018976356076289</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.951868671946539</v>
+        <v>1.011018222445679</v>
       </c>
       <c r="D8">
-        <v>0.963239819271054</v>
+        <v>1.013459810595595</v>
       </c>
       <c r="E8">
-        <v>0.9644067893606711</v>
+        <v>1.013194752331359</v>
       </c>
       <c r="F8">
-        <v>0.9269000747038383</v>
+        <v>1.009482063001938</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.9749715529868164</v>
+        <v>1.01614703342633</v>
       </c>
       <c r="K8">
-        <v>0.9749418805639004</v>
+        <v>1.016255837141191</v>
       </c>
       <c r="L8">
-        <v>0.9760914992856035</v>
+        <v>1.015991556027772</v>
       </c>
       <c r="M8">
-        <v>0.9391705707054588</v>
+        <v>1.012289798984072</v>
       </c>
       <c r="N8">
-        <v>0.9763561244228578</v>
+        <v>1.01759007876749</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.934115718311079</v>
+        <v>1.007712793635553</v>
       </c>
       <c r="D9">
-        <v>0.9482202980182201</v>
+        <v>1.010537022317887</v>
       </c>
       <c r="E9">
-        <v>0.9498464682871564</v>
+        <v>1.010355294634128</v>
       </c>
       <c r="F9">
-        <v>0.9013180656380259</v>
+        <v>1.004656380899224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9622305877789924</v>
+        <v>1.013695035356258</v>
       </c>
       <c r="K9">
-        <v>0.9622133144198248</v>
+        <v>1.013784964082865</v>
       </c>
       <c r="L9">
-        <v>0.9638092755677451</v>
+        <v>1.013603862642244</v>
       </c>
       <c r="M9">
-        <v>0.9162445565061549</v>
+        <v>1.007924714231783</v>
       </c>
       <c r="N9">
-        <v>0.9635970655830297</v>
+        <v>1.01513459857891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9212402979798868</v>
+        <v>1.005501757834983</v>
       </c>
       <c r="D10">
-        <v>0.9373749408551224</v>
+        <v>1.008583054819448</v>
       </c>
       <c r="E10">
-        <v>0.939341514450206</v>
+        <v>1.008457187089968</v>
       </c>
       <c r="F10">
-        <v>0.8825251313620592</v>
+        <v>1.001427778714666</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9529691062066528</v>
+        <v>1.012051451805073</v>
       </c>
       <c r="K10">
-        <v>0.9529751117612535</v>
+        <v>1.012129558622805</v>
       </c>
       <c r="L10">
-        <v>0.9548997239939995</v>
+        <v>1.012004168150266</v>
       </c>
       <c r="M10">
-        <v>0.8993975143496614</v>
+        <v>1.005001624673359</v>
       </c>
       <c r="N10">
-        <v>0.9543224316445507</v>
+        <v>1.013488680950561</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9153664282969037</v>
+        <v>1.004542476014395</v>
       </c>
       <c r="D11">
-        <v>0.9324405453903707</v>
+        <v>1.007735580330922</v>
       </c>
       <c r="E11">
-        <v>0.9345646222823928</v>
+        <v>1.007633978794078</v>
       </c>
       <c r="F11">
-        <v>0.8738719979186096</v>
+        <v>1.000026771836208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9487392675083849</v>
+        <v>1.011337556294104</v>
       </c>
       <c r="K11">
-        <v>0.9487598427366648</v>
+        <v>1.01141072780941</v>
       </c>
       <c r="L11">
-        <v>0.9508358818915659</v>
+        <v>1.011309526802742</v>
       </c>
       <c r="M11">
-        <v>0.8916413117738707</v>
+        <v>1.003732565962926</v>
       </c>
       <c r="N11">
-        <v>0.9500865860901617</v>
+        <v>1.012773771626081</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9131343525804714</v>
+        <v>1.004185861881782</v>
       </c>
       <c r="D12">
-        <v>0.9305676690499666</v>
+        <v>1.007420572992825</v>
       </c>
       <c r="E12">
-        <v>0.9327519756214444</v>
+        <v>1.007327997268281</v>
       </c>
       <c r="F12">
-        <v>0.8705693792967406</v>
+        <v>0.9995059019300299</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9471312416119552</v>
+        <v>1.011072043372366</v>
       </c>
       <c r="K12">
-        <v>0.9471580037672875</v>
+        <v>1.011143409557441</v>
       </c>
       <c r="L12">
-        <v>0.9492918425028533</v>
+        <v>1.011051203965471</v>
       </c>
       <c r="M12">
-        <v>0.8886814022425308</v>
+        <v>1.003260658509234</v>
       </c>
       <c r="N12">
-        <v>0.948476276612516</v>
+        <v>1.01250788164554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9136155116149149</v>
+        <v>1.004262370302684</v>
       </c>
       <c r="D13">
-        <v>0.9309712945331736</v>
+        <v>1.007488153114553</v>
       </c>
       <c r="E13">
-        <v>0.9331425997622369</v>
+        <v>1.007393640759741</v>
       </c>
       <c r="F13">
-        <v>0.8712820061623539</v>
+        <v>0.9996176520906364</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9474779075102516</v>
+        <v>1.01112901232374</v>
       </c>
       <c r="K13">
-        <v>0.9475033056174799</v>
+        <v>1.011200764493195</v>
       </c>
       <c r="L13">
-        <v>0.9496246725564648</v>
+        <v>1.011106628878239</v>
       </c>
       <c r="M13">
-        <v>0.8893200591551372</v>
+        <v>1.003361908237567</v>
       </c>
       <c r="N13">
-        <v>0.9488234348161515</v>
+        <v>1.012564931499358</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9151829840215147</v>
+        <v>1.004513004240034</v>
       </c>
       <c r="D14">
-        <v>0.9322865763963407</v>
+        <v>1.00770954621235</v>
       </c>
       <c r="E14">
-        <v>0.9344155953412785</v>
+        <v>1.007608690498916</v>
       </c>
       <c r="F14">
-        <v>0.8736008785202621</v>
+        <v>0.9999837263603598</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9486071248470416</v>
+        <v>1.011315615901845</v>
       </c>
       <c r="K14">
-        <v>0.9486281950165096</v>
+        <v>1.011388637618082</v>
       </c>
       <c r="L14">
-        <v>0.9507089790422492</v>
+        <v>1.011288179961228</v>
       </c>
       <c r="M14">
-        <v>0.8913983169220271</v>
+        <v>1.003693568724689</v>
       </c>
       <c r="N14">
-        <v>0.9499542557710825</v>
+        <v>1.012751800075948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9161419185621305</v>
+        <v>1.004667388790181</v>
       </c>
       <c r="D15">
-        <v>0.9330915225765307</v>
+        <v>1.007845924728814</v>
       </c>
       <c r="E15">
-        <v>0.9351947231326723</v>
+        <v>1.007741162302809</v>
       </c>
       <c r="F15">
-        <v>0.8750175240238675</v>
+        <v>1.000209213362901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9492978582691247</v>
+        <v>1.011430543189606</v>
       </c>
       <c r="K15">
-        <v>0.9493163679426155</v>
+        <v>1.011504350815392</v>
       </c>
       <c r="L15">
-        <v>0.9513723593288972</v>
+        <v>1.011399999326536</v>
       </c>
       <c r="M15">
-        <v>0.8926680237444893</v>
+        <v>1.00389784583789</v>
       </c>
       <c r="N15">
-        <v>0.950645970113853</v>
+        <v>1.01286689057364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.921623395483599</v>
+        <v>1.005565381531934</v>
       </c>
       <c r="D16">
-        <v>0.9376970561429129</v>
+        <v>1.00863926884945</v>
       </c>
       <c r="E16">
-        <v>0.9396534065395143</v>
+        <v>1.008511792346672</v>
       </c>
       <c r="F16">
-        <v>0.8830876579733402</v>
+        <v>1.001520693768316</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.953244884331172</v>
+        <v>1.012098783404227</v>
       </c>
       <c r="K16">
-        <v>0.9532500256420368</v>
+        <v>1.012177221654073</v>
       </c>
       <c r="L16">
-        <v>0.9551647951376335</v>
+        <v>1.01205022723764</v>
       </c>
       <c r="M16">
-        <v>0.8999017711147856</v>
+        <v>1.005085775770964</v>
       </c>
       <c r="N16">
-        <v>0.9545986014056389</v>
+        <v>1.013536079766015</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9249782894839234</v>
+        <v>1.006128155681408</v>
       </c>
       <c r="D17">
-        <v>0.9405194313313475</v>
+        <v>1.00913653377105</v>
       </c>
       <c r="E17">
-        <v>0.9423865071062572</v>
+        <v>1.008994830672333</v>
       </c>
       <c r="F17">
-        <v>0.888004681268617</v>
+        <v>1.002342531398443</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9556594300532317</v>
+        <v>1.012517354827538</v>
       </c>
       <c r="K17">
-        <v>0.9556574523326008</v>
+        <v>1.012598747105327</v>
       </c>
       <c r="L17">
-        <v>0.9574861972755357</v>
+        <v>1.012457567408557</v>
       </c>
       <c r="M17">
-        <v>0.904309589248022</v>
+        <v>1.005830023775418</v>
       </c>
       <c r="N17">
-        <v>0.9570165760595762</v>
+        <v>1.013955245608757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9269067279139958</v>
+        <v>1.006456230793752</v>
       </c>
       <c r="D18">
-        <v>0.9421430046318676</v>
+        <v>1.009426446076374</v>
       </c>
       <c r="E18">
-        <v>0.9439589672750832</v>
+        <v>1.009276452382998</v>
       </c>
       <c r="F18">
-        <v>0.8908237887752669</v>
+        <v>1.002821607394254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9570469055312799</v>
+        <v>1.012761287471614</v>
       </c>
       <c r="K18">
-        <v>0.9570412007891375</v>
+        <v>1.012844420486503</v>
       </c>
       <c r="L18">
-        <v>0.9588206349202851</v>
+        <v>1.012694973119459</v>
       </c>
       <c r="M18">
-        <v>0.9068368222006122</v>
+        <v>1.006263810019691</v>
       </c>
       <c r="N18">
-        <v>0.9584060219119488</v>
+        <v>1.014199524665167</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9275596045114739</v>
+        <v>1.00656806545137</v>
       </c>
       <c r="D19">
-        <v>0.9426928724901352</v>
+        <v>1.009525276213477</v>
       </c>
       <c r="E19">
-        <v>0.9444915638896868</v>
+        <v>1.009372456905695</v>
       </c>
       <c r="F19">
-        <v>0.8917770350513646</v>
+        <v>1.002984911764681</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9575165630596286</v>
+        <v>1.012844426310061</v>
       </c>
       <c r="K19">
-        <v>0.9575096569357505</v>
+        <v>1.012928155865903</v>
       </c>
       <c r="L19">
-        <v>0.9592724192017446</v>
+        <v>1.012775890503791</v>
       </c>
       <c r="M19">
-        <v>0.9076913806220952</v>
+        <v>1.006411666084644</v>
       </c>
       <c r="N19">
-        <v>0.9588763464078581</v>
+        <v>1.0142827815703</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.924621316052518</v>
+        <v>1.006067794192643</v>
       </c>
       <c r="D20">
-        <v>0.9402189902782478</v>
+        <v>1.009083195861316</v>
       </c>
       <c r="E20">
-        <v>0.9420955437787315</v>
+        <v>1.008943018358545</v>
       </c>
       <c r="F20">
-        <v>0.88748226258884</v>
+        <v>1.002254385950679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9554025586426697</v>
+        <v>1.012472468162121</v>
       </c>
       <c r="K20">
-        <v>0.9554013000676831</v>
+        <v>1.01255354166768</v>
       </c>
       <c r="L20">
-        <v>0.9572391838576996</v>
+        <v>1.012413883255998</v>
       </c>
       <c r="M20">
-        <v>0.9038412631377281</v>
+        <v>1.005750206361129</v>
       </c>
       <c r="N20">
-        <v>0.9567593398621476</v>
+        <v>1.013910295199126</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9147228378721687</v>
+        <v>1.004439206996361</v>
       </c>
       <c r="D21">
-        <v>0.9319004011691062</v>
+        <v>1.007644357535613</v>
       </c>
       <c r="E21">
-        <v>0.9340418228597321</v>
+        <v>1.007545369440663</v>
       </c>
       <c r="F21">
-        <v>0.8729205697927817</v>
+        <v>0.9998759398687251</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9482756512069226</v>
+        <v>1.011260675257756</v>
       </c>
       <c r="K21">
-        <v>0.9482979735315035</v>
+        <v>1.011333322352852</v>
       </c>
       <c r="L21">
-        <v>0.9503906637028079</v>
+        <v>1.011234726090134</v>
       </c>
       <c r="M21">
-        <v>0.8907885869464077</v>
+        <v>1.003595917568111</v>
       </c>
       <c r="N21">
-        <v>0.9496223114003739</v>
+        <v>1.012696781409843</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9082050714293777</v>
+        <v>1.003413542493866</v>
       </c>
       <c r="D22">
-        <v>0.9264359353855793</v>
+        <v>1.006738439806417</v>
       </c>
       <c r="E22">
-        <v>0.9287540101226217</v>
+        <v>1.00666542034573</v>
       </c>
       <c r="F22">
-        <v>0.863246042379062</v>
+        <v>0.9983777650426466</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9435788507673579</v>
+        <v>1.01049679989066</v>
       </c>
       <c r="K22">
-        <v>0.9436205510978284</v>
+        <v>1.010564310295488</v>
       </c>
       <c r="L22">
-        <v>0.9458825507033373</v>
+        <v>1.010491591642554</v>
       </c>
       <c r="M22">
-        <v>0.8821190141816712</v>
+        <v>1.002238397112825</v>
       </c>
       <c r="N22">
-        <v>0.9449188409654545</v>
+        <v>1.011931821252108</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9116902106386628</v>
+        <v>1.003957431960013</v>
       </c>
       <c r="D23">
-        <v>0.9293565732738428</v>
+        <v>1.007218806407243</v>
       </c>
       <c r="E23">
-        <v>0.9315799613158138</v>
+        <v>1.007132013570319</v>
       </c>
       <c r="F23">
-        <v>0.8684281793897299</v>
+        <v>0.9991722443141444</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9460906656027911</v>
+        <v>1.010901934346577</v>
       </c>
       <c r="K23">
-        <v>0.9461216221283549</v>
+        <v>1.010972152426065</v>
       </c>
       <c r="L23">
-        <v>0.9482929340540602</v>
+        <v>1.010885709715521</v>
       </c>
       <c r="M23">
-        <v>0.8867625336134355</v>
+        <v>1.00295833883997</v>
       </c>
       <c r="N23">
-        <v>0.9474342228660632</v>
+        <v>1.012337531045422</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9247827043924853</v>
+        <v>1.006095069512178</v>
       </c>
       <c r="D24">
-        <v>0.9403548164045508</v>
+        <v>1.009107297380737</v>
       </c>
       <c r="E24">
-        <v>0.9422270843797979</v>
+        <v>1.008966430503548</v>
       </c>
       <c r="F24">
-        <v>0.8877184714370845</v>
+        <v>1.002294215973763</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9555186920398827</v>
+        <v>1.012492751172289</v>
       </c>
       <c r="K24">
-        <v>0.9555171072067943</v>
+        <v>1.012573968662617</v>
       </c>
       <c r="L24">
-        <v>0.9573508588829496</v>
+        <v>1.012433622828032</v>
       </c>
       <c r="M24">
-        <v>0.9040530141115207</v>
+        <v>1.00578627340651</v>
       </c>
       <c r="N24">
-        <v>0.9568756381821055</v>
+        <v>1.013930607013495</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9388731403260439</v>
+        <v>1.008568593910981</v>
       </c>
       <c r="D25">
-        <v>0.9522377562429699</v>
+        <v>1.011293561302735</v>
       </c>
       <c r="E25">
-        <v>0.9537397548930844</v>
+        <v>1.011090238544763</v>
       </c>
       <c r="F25">
-        <v>0.9082077795290396</v>
+        <v>1.005905871714893</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9656485748842737</v>
+        <v>1.014330477726549</v>
       </c>
       <c r="K25">
-        <v>0.9656257184561008</v>
+        <v>1.014425152924449</v>
       </c>
       <c r="L25">
-        <v>0.9671013242449138</v>
+        <v>1.014222503702876</v>
       </c>
       <c r="M25">
-        <v>0.9224204418115172</v>
+        <v>1.009055411827613</v>
       </c>
       <c r="N25">
-        <v>0.9670199066220487</v>
+        <v>1.015770943350252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_223/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_223/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010536130669066</v>
+        <v>0.9493801536638241</v>
       </c>
       <c r="D2">
-        <v>1.013033400758866</v>
+        <v>0.9611298744614198</v>
       </c>
       <c r="E2">
-        <v>1.01278048318499</v>
+        <v>0.9623605412089158</v>
       </c>
       <c r="F2">
-        <v>1.008778288730086</v>
+        <v>0.9233340425675899</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.015789810205607</v>
+        <v>0.9731880096596829</v>
       </c>
       <c r="K2">
-        <v>1.015895768886358</v>
+        <v>0.9731586743334296</v>
       </c>
       <c r="L2">
-        <v>1.015643611777393</v>
+        <v>0.9743704115817503</v>
       </c>
       <c r="M2">
-        <v>1.011653506336786</v>
+        <v>0.9359759330233847</v>
       </c>
       <c r="N2">
-        <v>1.017232348248819</v>
+        <v>0.9745700482596245</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011961825587721</v>
+        <v>0.9566473130668579</v>
       </c>
       <c r="D3">
-        <v>1.014294552009237</v>
+        <v>0.9672956944484119</v>
       </c>
       <c r="E3">
-        <v>1.014005743137137</v>
+        <v>0.9683409372712244</v>
       </c>
       <c r="F3">
-        <v>1.010859548778239</v>
+        <v>0.9337317822483103</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.016845823810705</v>
+        <v>0.9783938807282537</v>
       </c>
       <c r="K3">
-        <v>1.016960289391879</v>
+        <v>0.9783648719045122</v>
       </c>
       <c r="L3">
-        <v>1.016672285099133</v>
+        <v>0.9793955956532505</v>
       </c>
       <c r="M3">
-        <v>1.0135348878805</v>
+        <v>0.9452892004549166</v>
       </c>
       <c r="N3">
-        <v>1.018289861514363</v>
+        <v>0.9797833122622346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012883059000036</v>
+        <v>0.9611994290940847</v>
       </c>
       <c r="D4">
-        <v>1.015109664922087</v>
+        <v>0.971164453982739</v>
       </c>
       <c r="E4">
-        <v>1.014797684216437</v>
+        <v>0.9720944427065628</v>
       </c>
       <c r="F4">
-        <v>1.012204372999632</v>
+        <v>0.9402213390415295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.017527519092686</v>
+        <v>0.9816505722691546</v>
       </c>
       <c r="K4">
-        <v>1.017647633016014</v>
+        <v>0.9816238250499925</v>
       </c>
       <c r="L4">
-        <v>1.017336477009674</v>
+        <v>0.9825417546527219</v>
       </c>
       <c r="M4">
-        <v>1.014750042297968</v>
+        <v>0.9510991232967736</v>
       </c>
       <c r="N4">
-        <v>1.018972524881836</v>
+        <v>0.9830446286786713</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013270046004912</v>
+        <v>0.9630794496763878</v>
       </c>
       <c r="D5">
-        <v>1.015452120874029</v>
+        <v>0.9727637184999982</v>
       </c>
       <c r="E5">
-        <v>1.01513041083367</v>
+        <v>0.9736463031690847</v>
       </c>
       <c r="F5">
-        <v>1.012769303319353</v>
+        <v>0.9428966673006691</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.017813723253029</v>
+        <v>0.9829945363965096</v>
       </c>
       <c r="K5">
-        <v>1.017936245941868</v>
+        <v>0.9829691952027786</v>
       </c>
       <c r="L5">
-        <v>1.017615367096649</v>
+        <v>0.9838406700723765</v>
       </c>
       <c r="M5">
-        <v>1.015260377364591</v>
+        <v>0.9534935274213299</v>
       </c>
       <c r="N5">
-        <v>1.019259135484914</v>
+        <v>0.9843905013892418</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013335005507032</v>
+        <v>0.9633931998601495</v>
       </c>
       <c r="D6">
-        <v>1.0155096081717</v>
+        <v>0.9730306980939603</v>
       </c>
       <c r="E6">
-        <v>1.0151862652314</v>
+        <v>0.9739053826626596</v>
       </c>
       <c r="F6">
-        <v>1.012864132710353</v>
+        <v>0.9433428795096597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.017861756060277</v>
+        <v>0.9832187635187106</v>
       </c>
       <c r="K6">
-        <v>1.017984685190564</v>
+        <v>0.9831936841449367</v>
       </c>
       <c r="L6">
-        <v>1.017662174422573</v>
+        <v>0.9840574135891076</v>
       </c>
       <c r="M6">
-        <v>1.015346035106193</v>
+        <v>0.9538928390556072</v>
       </c>
       <c r="N6">
-        <v>1.019307236504258</v>
+        <v>0.9846150469396756</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012888231105818</v>
+        <v>0.9612246795548136</v>
       </c>
       <c r="D7">
-        <v>1.015114241681825</v>
+        <v>0.9711859279233656</v>
       </c>
       <c r="E7">
-        <v>1.014802130925262</v>
+        <v>0.9721152792141298</v>
       </c>
       <c r="F7">
-        <v>1.01221192330768</v>
+        <v>0.940257289477297</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.01753134485412</v>
+        <v>0.9816686271677135</v>
       </c>
       <c r="K7">
-        <v>1.017651490829374</v>
+        <v>0.9816418969908897</v>
       </c>
       <c r="L7">
-        <v>1.017340204866563</v>
+        <v>0.9825592021671354</v>
       </c>
       <c r="M7">
-        <v>1.014756863426336</v>
+        <v>0.9511313017834624</v>
       </c>
       <c r="N7">
-        <v>1.018976356076289</v>
+        <v>0.9830627092172572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011018222445679</v>
+        <v>0.9518686719465387</v>
       </c>
       <c r="D8">
-        <v>1.013459810595595</v>
+        <v>0.9632398192710536</v>
       </c>
       <c r="E8">
-        <v>1.013194752331359</v>
+        <v>0.9644067893606709</v>
       </c>
       <c r="F8">
-        <v>1.009482063001938</v>
+        <v>0.926900074703838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.01614703342633</v>
+        <v>0.974971552986816</v>
       </c>
       <c r="K8">
-        <v>1.016255837141191</v>
+        <v>0.9749418805639002</v>
       </c>
       <c r="L8">
-        <v>1.015991556027772</v>
+        <v>0.9760914992856032</v>
       </c>
       <c r="M8">
-        <v>1.012289798984072</v>
+        <v>0.9391705707054583</v>
       </c>
       <c r="N8">
-        <v>1.01759007876749</v>
+        <v>0.9763561244228576</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007712793635553</v>
+        <v>0.9341157183110804</v>
       </c>
       <c r="D9">
-        <v>1.010537022317887</v>
+        <v>0.9482202980182216</v>
       </c>
       <c r="E9">
-        <v>1.010355294634128</v>
+        <v>0.9498464682871572</v>
       </c>
       <c r="F9">
-        <v>1.004656380899224</v>
+        <v>0.9013180656380269</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.013695035356258</v>
+        <v>0.9622305877789935</v>
       </c>
       <c r="K9">
-        <v>1.013784964082865</v>
+        <v>0.9622133144198259</v>
       </c>
       <c r="L9">
-        <v>1.013603862642244</v>
+        <v>0.9638092755677459</v>
       </c>
       <c r="M9">
-        <v>1.007924714231783</v>
+        <v>0.916244556506156</v>
       </c>
       <c r="N9">
-        <v>1.01513459857891</v>
+        <v>0.9635970655830307</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005501757834983</v>
+        <v>0.9212402979798866</v>
       </c>
       <c r="D10">
-        <v>1.008583054819448</v>
+        <v>0.9373749408551221</v>
       </c>
       <c r="E10">
-        <v>1.008457187089968</v>
+        <v>0.9393415144502059</v>
       </c>
       <c r="F10">
-        <v>1.001427778714666</v>
+        <v>0.8825251313620589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.012051451805073</v>
+        <v>0.9529691062066526</v>
       </c>
       <c r="K10">
-        <v>1.012129558622805</v>
+        <v>0.9529751117612532</v>
       </c>
       <c r="L10">
-        <v>1.012004168150266</v>
+        <v>0.9548997239939995</v>
       </c>
       <c r="M10">
-        <v>1.005001624673359</v>
+        <v>0.8993975143496612</v>
       </c>
       <c r="N10">
-        <v>1.013488680950561</v>
+        <v>0.9543224316445503</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004542476014395</v>
+        <v>0.9153664282969044</v>
       </c>
       <c r="D11">
-        <v>1.007735580330922</v>
+        <v>0.9324405453903715</v>
       </c>
       <c r="E11">
-        <v>1.007633978794078</v>
+        <v>0.9345646222823935</v>
       </c>
       <c r="F11">
-        <v>1.000026771836208</v>
+        <v>0.8738719979186093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.011337556294104</v>
+        <v>0.9487392675083853</v>
       </c>
       <c r="K11">
-        <v>1.01141072780941</v>
+        <v>0.9487598427366652</v>
       </c>
       <c r="L11">
-        <v>1.011309526802742</v>
+        <v>0.9508358818915663</v>
       </c>
       <c r="M11">
-        <v>1.003732565962926</v>
+        <v>0.8916413117738708</v>
       </c>
       <c r="N11">
-        <v>1.012773771626081</v>
+        <v>0.9500865860901622</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004185861881782</v>
+        <v>0.9131343525804712</v>
       </c>
       <c r="D12">
-        <v>1.007420572992825</v>
+        <v>0.9305676690499662</v>
       </c>
       <c r="E12">
-        <v>1.007327997268281</v>
+        <v>0.9327519756214436</v>
       </c>
       <c r="F12">
-        <v>0.9995059019300299</v>
+        <v>0.8705693792967402</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.011072043372366</v>
+        <v>0.9471312416119549</v>
       </c>
       <c r="K12">
-        <v>1.011143409557441</v>
+        <v>0.9471580037672872</v>
       </c>
       <c r="L12">
-        <v>1.011051203965471</v>
+        <v>0.9492918425028528</v>
       </c>
       <c r="M12">
-        <v>1.003260658509234</v>
+        <v>0.8886814022425302</v>
       </c>
       <c r="N12">
-        <v>1.01250788164554</v>
+        <v>0.9484762766125157</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004262370302684</v>
+        <v>0.9136155116149144</v>
       </c>
       <c r="D13">
-        <v>1.007488153114553</v>
+        <v>0.9309712945331732</v>
       </c>
       <c r="E13">
-        <v>1.007393640759741</v>
+        <v>0.9331425997622358</v>
       </c>
       <c r="F13">
-        <v>0.9996176520906364</v>
+        <v>0.8712820061623532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.01112901232374</v>
+        <v>0.947477907510251</v>
       </c>
       <c r="K13">
-        <v>1.011200764493195</v>
+        <v>0.9475033056174793</v>
       </c>
       <c r="L13">
-        <v>1.011106628878239</v>
+        <v>0.9496246725564639</v>
       </c>
       <c r="M13">
-        <v>1.003361908237567</v>
+        <v>0.8893200591551366</v>
       </c>
       <c r="N13">
-        <v>1.012564931499358</v>
+        <v>0.9488234348161507</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004513004240034</v>
+        <v>0.915182984021515</v>
       </c>
       <c r="D14">
-        <v>1.00770954621235</v>
+        <v>0.9322865763963412</v>
       </c>
       <c r="E14">
-        <v>1.007608690498916</v>
+        <v>0.9344155953412784</v>
       </c>
       <c r="F14">
-        <v>0.9999837263603598</v>
+        <v>0.8736008785202622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.011315615901845</v>
+        <v>0.948607124847042</v>
       </c>
       <c r="K14">
-        <v>1.011388637618082</v>
+        <v>0.9486281950165103</v>
       </c>
       <c r="L14">
-        <v>1.011288179961228</v>
+        <v>0.9507089790422492</v>
       </c>
       <c r="M14">
-        <v>1.003693568724689</v>
+        <v>0.8913983169220272</v>
       </c>
       <c r="N14">
-        <v>1.012751800075948</v>
+        <v>0.9499542557710827</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004667388790181</v>
+        <v>0.9161419185621315</v>
       </c>
       <c r="D15">
-        <v>1.007845924728814</v>
+        <v>0.9330915225765318</v>
       </c>
       <c r="E15">
-        <v>1.007741162302809</v>
+        <v>0.9351947231326737</v>
       </c>
       <c r="F15">
-        <v>1.000209213362901</v>
+        <v>0.8750175240238683</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.011430543189606</v>
+        <v>0.9492978582691257</v>
       </c>
       <c r="K15">
-        <v>1.011504350815392</v>
+        <v>0.9493163679426164</v>
       </c>
       <c r="L15">
-        <v>1.011399999326536</v>
+        <v>0.9513723593288984</v>
       </c>
       <c r="M15">
-        <v>1.00389784583789</v>
+        <v>0.8926680237444902</v>
       </c>
       <c r="N15">
-        <v>1.01286689057364</v>
+        <v>0.9506459701138543</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005565381531934</v>
+        <v>0.921623395483599</v>
       </c>
       <c r="D16">
-        <v>1.00863926884945</v>
+        <v>0.9376970561429129</v>
       </c>
       <c r="E16">
-        <v>1.008511792346672</v>
+        <v>0.9396534065395143</v>
       </c>
       <c r="F16">
-        <v>1.001520693768316</v>
+        <v>0.8830876579733402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.012098783404227</v>
+        <v>0.9532448843311722</v>
       </c>
       <c r="K16">
-        <v>1.012177221654073</v>
+        <v>0.9532500256420369</v>
       </c>
       <c r="L16">
-        <v>1.01205022723764</v>
+        <v>0.9551647951376335</v>
       </c>
       <c r="M16">
-        <v>1.005085775770964</v>
+        <v>0.8999017711147858</v>
       </c>
       <c r="N16">
-        <v>1.013536079766015</v>
+        <v>0.9545986014056389</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006128155681408</v>
+        <v>0.9249782894839232</v>
       </c>
       <c r="D17">
-        <v>1.00913653377105</v>
+        <v>0.940519431331348</v>
       </c>
       <c r="E17">
-        <v>1.008994830672333</v>
+        <v>0.9423865071062575</v>
       </c>
       <c r="F17">
-        <v>1.002342531398443</v>
+        <v>0.888004681268617</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.012517354827538</v>
+        <v>0.9556594300532317</v>
       </c>
       <c r="K17">
-        <v>1.012598747105327</v>
+        <v>0.9556574523326011</v>
       </c>
       <c r="L17">
-        <v>1.012457567408557</v>
+        <v>0.9574861972755361</v>
       </c>
       <c r="M17">
-        <v>1.005830023775418</v>
+        <v>0.904309589248022</v>
       </c>
       <c r="N17">
-        <v>1.013955245608757</v>
+        <v>0.9570165760595761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006456230793752</v>
+        <v>0.9269067279139963</v>
       </c>
       <c r="D18">
-        <v>1.009426446076374</v>
+        <v>0.942143004631868</v>
       </c>
       <c r="E18">
-        <v>1.009276452382998</v>
+        <v>0.9439589672750839</v>
       </c>
       <c r="F18">
-        <v>1.002821607394254</v>
+        <v>0.8908237887752682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.012761287471614</v>
+        <v>0.9570469055312804</v>
       </c>
       <c r="K18">
-        <v>1.012844420486503</v>
+        <v>0.9570412007891379</v>
       </c>
       <c r="L18">
-        <v>1.012694973119459</v>
+        <v>0.9588206349202856</v>
       </c>
       <c r="M18">
-        <v>1.006263810019691</v>
+        <v>0.9068368222006132</v>
       </c>
       <c r="N18">
-        <v>1.014199524665167</v>
+        <v>0.9584060219119493</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00656806545137</v>
+        <v>0.9275596045114739</v>
       </c>
       <c r="D19">
-        <v>1.009525276213477</v>
+        <v>0.9426928724901354</v>
       </c>
       <c r="E19">
-        <v>1.009372456905695</v>
+        <v>0.944491563889687</v>
       </c>
       <c r="F19">
-        <v>1.002984911764681</v>
+        <v>0.8917770350513645</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.012844426310061</v>
+        <v>0.9575165630596287</v>
       </c>
       <c r="K19">
-        <v>1.012928155865903</v>
+        <v>0.9575096569357505</v>
       </c>
       <c r="L19">
-        <v>1.012775890503791</v>
+        <v>0.9592724192017448</v>
       </c>
       <c r="M19">
-        <v>1.006411666084644</v>
+        <v>0.907691380622095</v>
       </c>
       <c r="N19">
-        <v>1.0142827815703</v>
+        <v>0.9588763464078583</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006067794192643</v>
+        <v>0.9246213160525176</v>
       </c>
       <c r="D20">
-        <v>1.009083195861316</v>
+        <v>0.9402189902782475</v>
       </c>
       <c r="E20">
-        <v>1.008943018358545</v>
+        <v>0.9420955437787309</v>
       </c>
       <c r="F20">
-        <v>1.002254385950679</v>
+        <v>0.8874822625888396</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.012472468162121</v>
+        <v>0.9554025586426692</v>
       </c>
       <c r="K20">
-        <v>1.01255354166768</v>
+        <v>0.9554013000676828</v>
       </c>
       <c r="L20">
-        <v>1.012413883255998</v>
+        <v>0.9572391838576993</v>
       </c>
       <c r="M20">
-        <v>1.005750206361129</v>
+        <v>0.9038412631377277</v>
       </c>
       <c r="N20">
-        <v>1.013910295199126</v>
+        <v>0.9567593398621469</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004439206996361</v>
+        <v>0.9147228378721692</v>
       </c>
       <c r="D21">
-        <v>1.007644357535613</v>
+        <v>0.9319004011691067</v>
       </c>
       <c r="E21">
-        <v>1.007545369440663</v>
+        <v>0.9340418228597323</v>
       </c>
       <c r="F21">
-        <v>0.9998759398687251</v>
+        <v>0.872920569792782</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.011260675257756</v>
+        <v>0.948275651206923</v>
       </c>
       <c r="K21">
-        <v>1.011333322352852</v>
+        <v>0.9482979735315039</v>
       </c>
       <c r="L21">
-        <v>1.011234726090134</v>
+        <v>0.9503906637028081</v>
       </c>
       <c r="M21">
-        <v>1.003595917568111</v>
+        <v>0.8907885869464078</v>
       </c>
       <c r="N21">
-        <v>1.012696781409843</v>
+        <v>0.9496223114003743</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003413542493866</v>
+        <v>0.908205071429379</v>
       </c>
       <c r="D22">
-        <v>1.006738439806417</v>
+        <v>0.9264359353855804</v>
       </c>
       <c r="E22">
-        <v>1.00666542034573</v>
+        <v>0.9287540101226228</v>
       </c>
       <c r="F22">
-        <v>0.9983777650426466</v>
+        <v>0.863246042379063</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.01049679989066</v>
+        <v>0.943578850767359</v>
       </c>
       <c r="K22">
-        <v>1.010564310295488</v>
+        <v>0.9436205510978296</v>
       </c>
       <c r="L22">
-        <v>1.010491591642554</v>
+        <v>0.9458825507033384</v>
       </c>
       <c r="M22">
-        <v>1.002238397112825</v>
+        <v>0.8821190141816722</v>
       </c>
       <c r="N22">
-        <v>1.011931821252108</v>
+        <v>0.9449188409654556</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003957431960013</v>
+        <v>0.9116902106386628</v>
       </c>
       <c r="D23">
-        <v>1.007218806407243</v>
+        <v>0.9293565732738427</v>
       </c>
       <c r="E23">
-        <v>1.007132013570319</v>
+        <v>0.9315799613158141</v>
       </c>
       <c r="F23">
-        <v>0.9991722443141444</v>
+        <v>0.8684281793897298</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.010901934346577</v>
+        <v>0.9460906656027912</v>
       </c>
       <c r="K23">
-        <v>1.010972152426065</v>
+        <v>0.9461216221283549</v>
       </c>
       <c r="L23">
-        <v>1.010885709715521</v>
+        <v>0.9482929340540603</v>
       </c>
       <c r="M23">
-        <v>1.00295833883997</v>
+        <v>0.8867625336134353</v>
       </c>
       <c r="N23">
-        <v>1.012337531045422</v>
+        <v>0.9474342228660633</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006095069512178</v>
+        <v>0.924782704392486</v>
       </c>
       <c r="D24">
-        <v>1.009107297380737</v>
+        <v>0.9403548164045513</v>
       </c>
       <c r="E24">
-        <v>1.008966430503548</v>
+        <v>0.9422270843797985</v>
       </c>
       <c r="F24">
-        <v>1.002294215973763</v>
+        <v>0.8877184714370852</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.012492751172289</v>
+        <v>0.9555186920398836</v>
       </c>
       <c r="K24">
-        <v>1.012573968662617</v>
+        <v>0.9555171072067951</v>
       </c>
       <c r="L24">
-        <v>1.012433622828032</v>
+        <v>0.9573508588829502</v>
       </c>
       <c r="M24">
-        <v>1.00578627340651</v>
+        <v>0.9040530141115215</v>
       </c>
       <c r="N24">
-        <v>1.013930607013495</v>
+        <v>0.9568756381821062</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008568593910981</v>
+        <v>0.9388731403260432</v>
       </c>
       <c r="D25">
-        <v>1.011293561302735</v>
+        <v>0.9522377562429691</v>
       </c>
       <c r="E25">
-        <v>1.011090238544763</v>
+        <v>0.9537397548930835</v>
       </c>
       <c r="F25">
-        <v>1.005905871714893</v>
+        <v>0.908207779529039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.014330477726549</v>
+        <v>0.965648574884273</v>
       </c>
       <c r="K25">
-        <v>1.014425152924449</v>
+        <v>0.9656257184561002</v>
       </c>
       <c r="L25">
-        <v>1.014222503702876</v>
+        <v>0.9671013242449129</v>
       </c>
       <c r="M25">
-        <v>1.009055411827613</v>
+        <v>0.9224204418115165</v>
       </c>
       <c r="N25">
-        <v>1.015770943350252</v>
+        <v>0.9670199066220484</v>
       </c>
     </row>
   </sheetData>
